--- a/Planilhas/ID-Lear.xlsx
+++ b/Planilhas/ID-Lear.xlsx
@@ -1,60 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:bookViews>
+    <x:workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="124519"/>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <x:si>
+    <x:t>389735</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,46 +367,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>389435</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="1" t="n">
+        <x:v>389435</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <x:pageSetup paperSize="0" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" copies="0"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <x:pageSetup paperSize="0" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" copies="0"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <x:pageSetup paperSize="0" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" copies="0"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>